--- a/Export/transformed_data.xlsx
+++ b/Export/transformed_data.xlsx
@@ -54751,9 +54751,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{003FB811-E452-4DCC-9FFB-8FE2D57D4390}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{465CC2F8-B62C-4906-B5A4-CFE078F8A800}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{70D65D26-A0E8-416F-8CB0-75BA37BB89E2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFFF26FB-4C34-4945-AC19-F882BB2230E4}"/>
 </file>
--- a/Export/transformed_data.xlsx
+++ b/Export/transformed_data.xlsx
@@ -54751,9 +54751,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{465CC2F8-B62C-4906-B5A4-CFE078F8A800}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D5B78F2-D875-415B-AA52-7D38C0249D82}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFFF26FB-4C34-4945-AC19-F882BB2230E4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9201797-FA5B-4511-81F4-5058D922C70C}"/>
 </file>
--- a/Export/transformed_data.xlsx
+++ b/Export/transformed_data.xlsx
@@ -54751,9 +54751,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D5B78F2-D875-415B-AA52-7D38C0249D82}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89D8876C-0C95-44E5-871B-499710FE8909}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9201797-FA5B-4511-81F4-5058D922C70C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{38AFC9CB-7621-4242-976A-862F7F061239}"/>
 </file>